--- a/dataset/KOPP/kopp.xlsx
+++ b/dataset/KOPP/kopp.xlsx
@@ -6366,7 +6366,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">31</t>
+      <t xml:space="preserve">19</t>
     </r>
     <r>
       <rPr>
@@ -7814,8 +7814,8 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A167" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H170" activeCellId="0" sqref="H170"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A151" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A151" activeCellId="0" sqref="A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
